--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2052960.577179495</v>
+        <v>2050463.411002631</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673445</v>
       </c>
     </row>
     <row r="9">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>191.7549174328571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>124.9536434626483</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1455,7 +1455,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553998</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404343</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1616,7 +1616,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1664,16 +1664,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>141.2315431469731</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>236.8621683961344</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804553998</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C17" t="n">
-        <v>271.3226185338224</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D17" t="n">
-        <v>260.7327683834978</v>
+        <v>260.7327683834979</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F17" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045264</v>
       </c>
       <c r="G17" t="n">
-        <v>264.6891945433911</v>
+        <v>316.9714524162684</v>
       </c>
       <c r="H17" t="n">
-        <v>200.6574911501353</v>
+        <v>148.3752332772567</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099069</v>
+        <v>15.2374885509908</v>
       </c>
       <c r="T17" t="n">
-        <v>109.967696902435</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U17" t="n">
-        <v>157.0448987217168</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V17" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2906954802278</v>
+        <v>255.290695480228</v>
       </c>
       <c r="X17" t="n">
-        <v>275.7808274412839</v>
+        <v>275.780827441284</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1986,7 +1986,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475214</v>
+        <v>85.88170694475222</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144268</v>
+        <v>73.29654786144276</v>
       </c>
       <c r="D19" t="n">
-        <v>54.6651997810272</v>
+        <v>54.66519978102728</v>
       </c>
       <c r="E19" t="n">
-        <v>52.48368940938401</v>
+        <v>52.4836894093841</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47077478574609</v>
+        <v>51.47077478574617</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184307</v>
+        <v>72.07553502184315</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713562</v>
+        <v>50.80474167713572</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172652953</v>
+        <v>2.402147172653045</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425672</v>
+        <v>95.81875209425685</v>
       </c>
       <c r="T19" t="n">
-        <v>125.598676038984</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2615649684277</v>
+        <v>192.2615649684278</v>
       </c>
       <c r="V19" t="n">
-        <v>158.1873700866428</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W19" t="n">
-        <v>192.5727250994058</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X19" t="n">
-        <v>131.759382151852</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.6343801149096</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C20" t="n">
-        <v>271.3226185338224</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D20" t="n">
-        <v>260.7327683834978</v>
+        <v>260.7327683834979</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F20" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045264</v>
       </c>
       <c r="G20" t="n">
-        <v>264.6891945433906</v>
+        <v>316.9714524162684</v>
       </c>
       <c r="H20" t="n">
-        <v>200.6574911501353</v>
+        <v>200.6574911501354</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.23748855099069</v>
+        <v>15.23748855099078</v>
       </c>
       <c r="T20" t="n">
-        <v>109.967696902435</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U20" t="n">
-        <v>157.0448987217168</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V20" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2906954802278</v>
+        <v>255.290695480228</v>
       </c>
       <c r="X20" t="n">
-        <v>275.7808274412839</v>
+        <v>223.4985695684047</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475214</v>
+        <v>85.88170694475222</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144268</v>
+        <v>73.29654786144276</v>
       </c>
       <c r="D22" t="n">
-        <v>54.6651997810272</v>
+        <v>54.66519978102728</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938401</v>
+        <v>52.4836894093841</v>
       </c>
       <c r="F22" t="n">
-        <v>51.47077478574609</v>
+        <v>51.47077478574617</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184307</v>
+        <v>72.07553502184315</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713562</v>
+        <v>50.80474167713571</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172652953</v>
+        <v>2.402147172653038</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425672</v>
+        <v>95.81875209425684</v>
       </c>
       <c r="T22" t="n">
-        <v>125.598676038984</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2615649684277</v>
+        <v>192.2615649684278</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1873700866428</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W22" t="n">
-        <v>192.5727250994058</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X22" t="n">
-        <v>131.759382151852</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.6343801149096</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C23" t="n">
-        <v>271.3226185338224</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D23" t="n">
-        <v>260.7327683834978</v>
+        <v>260.7327683834979</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F23" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045264</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9714524162683</v>
+        <v>275.2463362593746</v>
       </c>
       <c r="H23" t="n">
-        <v>200.6574911501353</v>
+        <v>200.6574911501354</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.23748855099069</v>
+        <v>15.23748855099078</v>
       </c>
       <c r="T23" t="n">
-        <v>68.24258074554481</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U23" t="n">
-        <v>157.0448987217168</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V23" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W23" t="n">
-        <v>255.2906954802278</v>
+        <v>255.290695480228</v>
       </c>
       <c r="X23" t="n">
-        <v>275.7808274412839</v>
+        <v>275.780827441284</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="24">
@@ -2406,10 +2406,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933834</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657077</v>
       </c>
       <c r="H24" t="n">
         <v>89.59687541851116</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475214</v>
+        <v>85.88170694475222</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144268</v>
+        <v>73.29654786144276</v>
       </c>
       <c r="D25" t="n">
-        <v>54.6651997810272</v>
+        <v>54.66519978102728</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938401</v>
+        <v>52.4836894093841</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574609</v>
+        <v>51.47077478574617</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184307</v>
+        <v>72.07553502184315</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713562</v>
+        <v>50.80474167713571</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172652953</v>
+        <v>2.402147172653038</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.81875209425672</v>
+        <v>95.81875209425684</v>
       </c>
       <c r="T25" t="n">
-        <v>125.598676038984</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2615649684277</v>
+        <v>192.2615649684278</v>
       </c>
       <c r="V25" t="n">
-        <v>158.1873700866428</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W25" t="n">
-        <v>192.5727250994058</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X25" t="n">
-        <v>131.759382151852</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.6343801149096</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>286.2758566596986</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2612,7 +2612,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988204</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>222.4736344426692</v>
       </c>
     </row>
     <row r="27">
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.9994691657076</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247703</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>222.4736344426714</v>
+        <v>297.596970733817</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851075</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247745</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.8032029865175</v>
+        <v>285.8032029865174</v>
       </c>
       <c r="C32" t="n">
-        <v>268.3422530940445</v>
+        <v>268.3422530940443</v>
       </c>
       <c r="D32" t="n">
-        <v>257.7524029437199</v>
+        <v>257.7524029437197</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952987</v>
+        <v>284.9997313952986</v>
       </c>
       <c r="F32" t="n">
-        <v>309.9454070647483</v>
+        <v>309.9454070647482</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9910869764904</v>
+        <v>313.9910869764902</v>
       </c>
       <c r="H32" t="n">
-        <v>197.6771257103574</v>
+        <v>197.6771257103572</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121278</v>
+        <v>12.25712311121264</v>
       </c>
       <c r="T32" t="n">
-        <v>106.9873314626571</v>
+        <v>106.987331462657</v>
       </c>
       <c r="U32" t="n">
-        <v>154.0645332819389</v>
+        <v>154.0645332819388</v>
       </c>
       <c r="V32" t="n">
-        <v>230.8216197931718</v>
+        <v>230.8216197931717</v>
       </c>
       <c r="W32" t="n">
-        <v>252.3103300404499</v>
+        <v>252.3103300404498</v>
       </c>
       <c r="X32" t="n">
-        <v>272.8004620015059</v>
+        <v>272.8004620015058</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790905</v>
+        <v>289.3072999790904</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851069</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.90134150497423</v>
+        <v>82.9013415049741</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166476</v>
+        <v>70.31618242166464</v>
       </c>
       <c r="D34" t="n">
-        <v>51.68483434124929</v>
+        <v>51.68483434124916</v>
       </c>
       <c r="E34" t="n">
-        <v>49.5033239696061</v>
+        <v>49.50332396960597</v>
       </c>
       <c r="F34" t="n">
-        <v>48.49040934596817</v>
+        <v>48.49040934596805</v>
       </c>
       <c r="G34" t="n">
-        <v>69.09516958206515</v>
+        <v>69.09516958206503</v>
       </c>
       <c r="H34" t="n">
-        <v>47.82437623735771</v>
+        <v>47.82437623735758</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.83838665447882</v>
+        <v>92.8383866544787</v>
       </c>
       <c r="T34" t="n">
-        <v>122.6183105992061</v>
+        <v>122.618310599206</v>
       </c>
       <c r="U34" t="n">
-        <v>189.2811995286498</v>
+        <v>189.2811995286496</v>
       </c>
       <c r="V34" t="n">
-        <v>155.2070046468649</v>
+        <v>155.2070046468648</v>
       </c>
       <c r="W34" t="n">
-        <v>189.5923596596279</v>
+        <v>189.5923596596278</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7790167120741</v>
+        <v>128.7790167120739</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751317</v>
+        <v>121.6540146751316</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3351,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804553998</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3512,13 +3512,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592164</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420288</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247745</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,13 +3797,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4113,7 +4113,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383225</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010731</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846412</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775078</v>
@@ -4201,7 +4201,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1680.134122574823</v>
+        <v>1640.51772658026</v>
       </c>
       <c r="C11" t="n">
-        <v>1358.621238582484</v>
+        <v>1640.51772658026</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.805172923807</v>
+        <v>1329.701660921584</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>991.3630412714126</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>627.8267694298784</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>260.2039522229481</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,25 +5039,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.52497783108</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2993.309176353657</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W11" t="n">
-        <v>2687.990154031616</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.97402871861</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y11" t="n">
-        <v>2019.284329690871</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
         <v>458.9189605332749</v>
@@ -5163,7 +5163,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052942</v>
+        <v>759.466249805293</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254594</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611969</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268771</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770401</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998331</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657642</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5230,19 +5230,19 @@
         <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179561</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.54794583286</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882916</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874594</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.338774781835</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1446.825890789496</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130819</v>
+        <v>772.4735532892846</v>
       </c>
       <c r="E14" t="n">
-        <v>797.671205480648</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F14" t="n">
         <v>434.1349336391136</v>
@@ -5288,13 +5288,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5312,16 +5312,16 @@
         <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2755.497703247663</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2450.178680925621</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2450.178680925621</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2107.488981897883</v>
+        <v>1743.952710056349</v>
       </c>
     </row>
     <row r="15">
@@ -5340,16 +5340,16 @@
         <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052938</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254602</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611977</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268779</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770412</v>
+        <v>335.408918177041</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998332</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657643</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328083</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337111</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5464,22 +5464,22 @@
         <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1680.964583048799</v>
+        <v>1680.964583048798</v>
       </c>
       <c r="C17" t="n">
-        <v>1406.901332004534</v>
+        <v>1406.901332004533</v>
       </c>
       <c r="D17" t="n">
-        <v>1143.53489929393</v>
+        <v>1143.534899293929</v>
       </c>
       <c r="E17" t="n">
-        <v>852.6459125918327</v>
+        <v>852.6459125918309</v>
       </c>
       <c r="F17" t="n">
-        <v>536.5592736983716</v>
+        <v>536.5592736983699</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1964509272696</v>
+        <v>216.3860894395134</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.214419032412</v>
+        <v>3310.214419032411</v>
       </c>
       <c r="T17" t="n">
-        <v>3199.135937312781</v>
+        <v>3199.13593731278</v>
       </c>
       <c r="U17" t="n">
-        <v>3040.504726482764</v>
+        <v>3040.504726482763</v>
       </c>
       <c r="V17" t="n">
-        <v>2804.34110503534</v>
+        <v>2804.341105035339</v>
       </c>
       <c r="W17" t="n">
-        <v>2546.471715661372</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X17" t="n">
-        <v>2267.905223296439</v>
+        <v>2267.905223296438</v>
       </c>
       <c r="Y17" t="n">
-        <v>1972.665157216774</v>
+        <v>1972.665157216773</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,7 +5607,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
         <v>2407.41198488674</v>
@@ -5622,22 +5622,22 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W18" t="n">
         <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.318819168781</v>
+        <v>427.3188191687816</v>
       </c>
       <c r="C19" t="n">
-        <v>353.2819021370207</v>
+        <v>353.2819021370212</v>
       </c>
       <c r="D19" t="n">
-        <v>298.0645286208317</v>
+        <v>298.064528620832</v>
       </c>
       <c r="E19" t="n">
-        <v>245.0507009345852</v>
+        <v>245.0507009345855</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0600193328215</v>
+        <v>193.0600193328217</v>
       </c>
       <c r="G19" t="n">
-        <v>120.256448603687</v>
+        <v>120.2564486036872</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769146</v>
+        <v>68.93852771769151</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>139.6276133533384</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K19" t="n">
-        <v>330.949238125822</v>
+        <v>237.9384676210112</v>
       </c>
       <c r="L19" t="n">
-        <v>579.6698525529926</v>
+        <v>486.6590820481816</v>
       </c>
       <c r="M19" t="n">
-        <v>840.1131043570036</v>
+        <v>747.1023338521925</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.432711891664</v>
+        <v>1011.421941386853</v>
       </c>
       <c r="O19" t="n">
-        <v>1242.351061109854</v>
+        <v>1242.351061109856</v>
       </c>
       <c r="P19" t="n">
-        <v>1434.312834367426</v>
+        <v>1434.312834367428</v>
       </c>
       <c r="Q19" t="n">
-        <v>1540.24437223078</v>
+        <v>1540.244372230782</v>
       </c>
       <c r="R19" t="n">
-        <v>1545.212311592247</v>
+        <v>1545.212311592248</v>
       </c>
       <c r="S19" t="n">
-        <v>1448.42569331522</v>
+        <v>1448.425693315221</v>
       </c>
       <c r="T19" t="n">
-        <v>1321.558343780892</v>
+        <v>1321.558343780893</v>
       </c>
       <c r="U19" t="n">
-        <v>1127.354742802682</v>
+        <v>1127.354742802684</v>
       </c>
       <c r="V19" t="n">
-        <v>967.5695204929423</v>
+        <v>967.5695204929432</v>
       </c>
       <c r="W19" t="n">
-        <v>773.0516163521283</v>
+        <v>773.051616352129</v>
       </c>
       <c r="X19" t="n">
-        <v>639.9613313502576</v>
+        <v>639.9613313502582</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.0680181028741</v>
+        <v>514.0680181028747</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1680.964583048799</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C20" t="n">
-        <v>1406.901332004534</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D20" t="n">
-        <v>1143.53489929393</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E20" t="n">
-        <v>852.6459125918323</v>
+        <v>905.4562740795873</v>
       </c>
       <c r="F20" t="n">
-        <v>536.5592736983713</v>
+        <v>589.3696351861263</v>
       </c>
       <c r="G20" t="n">
-        <v>269.1964509272696</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5774,28 +5774,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.214419032412</v>
+        <v>3310.214419032411</v>
       </c>
       <c r="T20" t="n">
-        <v>3199.135937312781</v>
+        <v>3199.13593731278</v>
       </c>
       <c r="U20" t="n">
-        <v>3040.504726482764</v>
+        <v>3040.504726482763</v>
       </c>
       <c r="V20" t="n">
-        <v>2804.34110503534</v>
+        <v>2804.341105035338</v>
       </c>
       <c r="W20" t="n">
-        <v>2546.471715661372</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X20" t="n">
-        <v>2267.905223296439</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y20" t="n">
-        <v>1972.665157216774</v>
+        <v>2025.475518704529</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
         <v>765.151745215813</v>
@@ -5874,7 +5874,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>427.318819168781</v>
+        <v>427.3188191687816</v>
       </c>
       <c r="C22" t="n">
-        <v>353.2819021370207</v>
+        <v>353.2819021370212</v>
       </c>
       <c r="D22" t="n">
-        <v>298.0645286208317</v>
+        <v>298.064528620832</v>
       </c>
       <c r="E22" t="n">
-        <v>245.0507009345852</v>
+        <v>245.0507009345855</v>
       </c>
       <c r="F22" t="n">
-        <v>193.0600193328215</v>
+        <v>193.0600193328217</v>
       </c>
       <c r="G22" t="n">
-        <v>120.256448603687</v>
+        <v>120.2564486036872</v>
       </c>
       <c r="H22" t="n">
-        <v>68.93852771769146</v>
+        <v>68.93852771769151</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>171.3456404744362</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K22" t="n">
-        <v>362.6672652469198</v>
+        <v>269.6564947421064</v>
       </c>
       <c r="L22" t="n">
-        <v>579.6698525529926</v>
+        <v>518.3771091692768</v>
       </c>
       <c r="M22" t="n">
-        <v>840.1131043570036</v>
+        <v>778.8203609732877</v>
       </c>
       <c r="N22" t="n">
-        <v>1011.421941386851</v>
+        <v>1011.421941386853</v>
       </c>
       <c r="O22" t="n">
-        <v>1242.351061109854</v>
+        <v>1242.351061109856</v>
       </c>
       <c r="P22" t="n">
-        <v>1434.312834367426</v>
+        <v>1434.312834367428</v>
       </c>
       <c r="Q22" t="n">
-        <v>1540.24437223078</v>
+        <v>1540.244372230782</v>
       </c>
       <c r="R22" t="n">
-        <v>1545.212311592247</v>
+        <v>1545.212311592248</v>
       </c>
       <c r="S22" t="n">
-        <v>1448.42569331522</v>
+        <v>1448.425693315221</v>
       </c>
       <c r="T22" t="n">
-        <v>1321.558343780892</v>
+        <v>1321.558343780893</v>
       </c>
       <c r="U22" t="n">
-        <v>1127.354742802682</v>
+        <v>1127.354742802684</v>
       </c>
       <c r="V22" t="n">
-        <v>967.5695204929423</v>
+        <v>967.5695204929432</v>
       </c>
       <c r="W22" t="n">
-        <v>773.0516163521283</v>
+        <v>773.051616352129</v>
       </c>
       <c r="X22" t="n">
-        <v>639.9613313502576</v>
+        <v>639.9613313502582</v>
       </c>
       <c r="Y22" t="n">
-        <v>514.0680181028741</v>
+        <v>514.0680181028747</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1733.992572689842</v>
+        <v>1691.845990713182</v>
       </c>
       <c r="C23" t="n">
-        <v>1459.929321645577</v>
+        <v>1417.782739668917</v>
       </c>
       <c r="D23" t="n">
-        <v>1196.562888934973</v>
+        <v>1154.416306958313</v>
       </c>
       <c r="E23" t="n">
-        <v>905.6739022328754</v>
+        <v>863.5273202562153</v>
       </c>
       <c r="F23" t="n">
-        <v>589.5872633394144</v>
+        <v>547.4406813627543</v>
       </c>
       <c r="G23" t="n">
         <v>269.4140790805573</v>
       </c>
       <c r="H23" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="I23" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="J23" t="n">
-        <v>255.6088755444965</v>
+        <v>266.2726550555926</v>
       </c>
       <c r="K23" t="n">
-        <v>589.428249234343</v>
+        <v>600.0920287454389</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.462462482752</v>
+        <v>1051.126241993848</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.994367154676</v>
+        <v>1584.658146665772</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.773184213458</v>
+        <v>2131.436963724554</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.745655092795</v>
+        <v>2634.409434603891</v>
       </c>
       <c r="P23" t="n">
-        <v>3029.183800961071</v>
+        <v>3029.183800961069</v>
       </c>
       <c r="Q23" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.470162716751</v>
       </c>
       <c r="R23" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273554</v>
       </c>
       <c r="S23" t="n">
-        <v>3321.095826696798</v>
+        <v>3321.095826696795</v>
       </c>
       <c r="T23" t="n">
-        <v>3252.163926953823</v>
+        <v>3210.017344977164</v>
       </c>
       <c r="U23" t="n">
-        <v>3093.532716123806</v>
+        <v>3051.386134147148</v>
       </c>
       <c r="V23" t="n">
-        <v>2857.369094676383</v>
+        <v>2815.222512699724</v>
       </c>
       <c r="W23" t="n">
-        <v>2599.499705302415</v>
+        <v>2557.353123325756</v>
       </c>
       <c r="X23" t="n">
-        <v>2320.933212937482</v>
+        <v>2278.786630960823</v>
       </c>
       <c r="Y23" t="n">
-        <v>2025.693146857817</v>
+        <v>1983.546564881157</v>
       </c>
     </row>
     <row r="24">
@@ -6054,22 +6054,22 @@
         <v>459.1365886865621</v>
       </c>
       <c r="F24" t="n">
-        <v>312.6020307134476</v>
+        <v>312.6020307134471</v>
       </c>
       <c r="G24" t="n">
-        <v>176.2389305460657</v>
+        <v>176.2389305460656</v>
       </c>
       <c r="H24" t="n">
-        <v>85.73703618393318</v>
+        <v>85.73703618393313</v>
       </c>
       <c r="I24" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="J24" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760883</v>
       </c>
       <c r="K24" t="n">
-        <v>398.6712130564355</v>
+        <v>398.6712130564354</v>
       </c>
       <c r="L24" t="n">
         <v>765.3693733691007</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>427.5364473220687</v>
+        <v>427.5364473220693</v>
       </c>
       <c r="C25" t="n">
-        <v>353.4995302903084</v>
+        <v>353.4995302903089</v>
       </c>
       <c r="D25" t="n">
-        <v>298.2821567741194</v>
+        <v>298.2821567741197</v>
       </c>
       <c r="E25" t="n">
-        <v>245.2683290878729</v>
+        <v>245.2683290878732</v>
       </c>
       <c r="F25" t="n">
-        <v>193.2776474861092</v>
+        <v>193.2776474861093</v>
       </c>
       <c r="G25" t="n">
-        <v>120.4740767569747</v>
+        <v>120.4740767569749</v>
       </c>
       <c r="H25" t="n">
-        <v>69.15615587097916</v>
+        <v>69.15615587097919</v>
       </c>
       <c r="I25" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="J25" t="n">
-        <v>171.5632686277239</v>
+        <v>139.8452415066282</v>
       </c>
       <c r="K25" t="n">
-        <v>362.8848934002075</v>
+        <v>331.1668662791118</v>
       </c>
       <c r="L25" t="n">
-        <v>518.5947373225647</v>
+        <v>486.876710201469</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0379891265758</v>
+        <v>747.31996200548</v>
       </c>
       <c r="N25" t="n">
-        <v>1011.639569540139</v>
+        <v>1011.639569540141</v>
       </c>
       <c r="O25" t="n">
-        <v>1242.568689263142</v>
+        <v>1242.568689263144</v>
       </c>
       <c r="P25" t="n">
-        <v>1434.530462520714</v>
+        <v>1434.530462520715</v>
       </c>
       <c r="Q25" t="n">
-        <v>1540.462000384068</v>
+        <v>1540.462000384069</v>
       </c>
       <c r="R25" t="n">
-        <v>1545.429939745534</v>
+        <v>1545.429939745536</v>
       </c>
       <c r="S25" t="n">
-        <v>1448.643321468507</v>
+        <v>1448.643321468508</v>
       </c>
       <c r="T25" t="n">
-        <v>1321.77597193418</v>
+        <v>1321.775971934181</v>
       </c>
       <c r="U25" t="n">
-        <v>1127.57237095597</v>
+        <v>1127.572370955971</v>
       </c>
       <c r="V25" t="n">
-        <v>967.78714864623</v>
+        <v>967.7871486462309</v>
       </c>
       <c r="W25" t="n">
-        <v>773.2692445054161</v>
+        <v>773.2692445054167</v>
       </c>
       <c r="X25" t="n">
-        <v>640.1789595035453</v>
+        <v>640.1789595035459</v>
       </c>
       <c r="Y25" t="n">
-        <v>514.2856462561618</v>
+        <v>514.2856462561624</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1658.703217048927</v>
+        <v>1430.217783284951</v>
       </c>
       <c r="C26" t="n">
-        <v>1337.190333056589</v>
+        <v>1108.704899292612</v>
       </c>
       <c r="D26" t="n">
-        <v>1048.022801077095</v>
+        <v>797.8888336339354</v>
       </c>
       <c r="E26" t="n">
-        <v>1048.022801077095</v>
+        <v>797.8888336339354</v>
       </c>
       <c r="F26" t="n">
-        <v>684.4865292355607</v>
+        <v>434.3525617924012</v>
       </c>
       <c r="G26" t="n">
-        <v>316.8637120286306</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="H26" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="I26" t="n">
-        <v>66.72974458547112</v>
+        <v>72.07396936268101</v>
       </c>
       <c r="J26" t="n">
-        <v>255.6088755444965</v>
+        <v>260.9531003217064</v>
       </c>
       <c r="K26" t="n">
-        <v>589.428249234343</v>
+        <v>594.7724740115527</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.462462482752</v>
+        <v>1045.806687259961</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.994367154676</v>
+        <v>1579.338591931886</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.773184213458</v>
+        <v>2126.117408990668</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.745655092795</v>
+        <v>2629.089879870005</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.520021449973</v>
+        <v>3023.864246227183</v>
       </c>
       <c r="Q26" t="n">
-        <v>3277.470162716754</v>
+        <v>3272.150607982865</v>
       </c>
       <c r="R26" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273554</v>
       </c>
       <c r="S26" t="n">
-        <v>3336.487229273556</v>
+        <v>3273.646193748722</v>
       </c>
       <c r="T26" t="n">
-        <v>3177.959114605851</v>
+        <v>3115.118079081017</v>
       </c>
       <c r="U26" t="n">
-        <v>2971.878270827761</v>
+        <v>2909.037235302927</v>
       </c>
       <c r="V26" t="n">
-        <v>2971.878270827761</v>
+        <v>2625.42398090743</v>
       </c>
       <c r="W26" t="n">
-        <v>2666.55924850572</v>
+        <v>2320.104958585389</v>
       </c>
       <c r="X26" t="n">
-        <v>2340.543123192714</v>
+        <v>1994.088833272383</v>
       </c>
       <c r="Y26" t="n">
-        <v>1997.853424164976</v>
+        <v>1769.367990400999</v>
       </c>
     </row>
     <row r="27">
@@ -6294,19 +6294,19 @@
         <v>312.6020307134471</v>
       </c>
       <c r="G27" t="n">
-        <v>176.2389305460657</v>
+        <v>176.2389305460652</v>
       </c>
       <c r="H27" t="n">
-        <v>85.73703618393318</v>
+        <v>85.73703618393272</v>
       </c>
       <c r="I27" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760883</v>
       </c>
       <c r="K27" t="n">
-        <v>398.6712130564355</v>
+        <v>398.6712130564354</v>
       </c>
       <c r="L27" t="n">
         <v>765.3693733691007</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.6838779585826</v>
+        <v>759.6838779585821</v>
       </c>
       <c r="C28" t="n">
-        <v>638.1973279787489</v>
+        <v>638.1973279787485</v>
       </c>
       <c r="D28" t="n">
-        <v>535.5303215144866</v>
+        <v>535.530321514486</v>
       </c>
       <c r="E28" t="n">
         <v>435.0668608801662</v>
       </c>
       <c r="F28" t="n">
-        <v>335.6265463303292</v>
+        <v>335.6265463303289</v>
       </c>
       <c r="G28" t="n">
-        <v>215.3733426531215</v>
+        <v>215.3733426531212</v>
       </c>
       <c r="H28" t="n">
         <v>116.6057888190524</v>
       </c>
       <c r="I28" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="J28" t="n">
-        <v>158.3577622848134</v>
+        <v>158.3577622848133</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860964</v>
+        <v>408.8503304860963</v>
       </c>
       <c r="L28" t="n">
         <v>771.915514186999</v>
@@ -6412,7 +6412,7 @@
         <v>2112.938182741534</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.621200259134</v>
+        <v>1938.621200259133</v>
       </c>
       <c r="U28" t="n">
         <v>1696.96796633285</v>
@@ -6421,13 +6421,13 @@
         <v>1489.733111075037</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.76557398615</v>
+        <v>1247.765573986149</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.225656036206</v>
+        <v>1067.225656036205</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.8827098407489</v>
+        <v>893.8827098407485</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1430.217783284951</v>
+        <v>1680.35175072811</v>
       </c>
       <c r="C29" t="n">
-        <v>1108.704899292613</v>
+        <v>1358.838866735772</v>
       </c>
       <c r="D29" t="n">
-        <v>797.8888336339355</v>
+        <v>1048.022801077095</v>
       </c>
       <c r="E29" t="n">
-        <v>797.8888336339355</v>
+        <v>1048.022801077095</v>
       </c>
       <c r="F29" t="n">
-        <v>434.3525617924013</v>
+        <v>684.486529235561</v>
       </c>
       <c r="G29" t="n">
-        <v>66.72974458547112</v>
+        <v>316.8637120286307</v>
       </c>
       <c r="H29" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="I29" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="J29" t="n">
         <v>255.6088755444965</v>
       </c>
       <c r="K29" t="n">
-        <v>589.428249234343</v>
+        <v>589.4282492343428</v>
       </c>
       <c r="L29" t="n">
         <v>1040.462462482752</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.994367154676</v>
+        <v>1584.658146665772</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.773184213458</v>
+        <v>2131.436963724554</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.745655092795</v>
+        <v>2634.409434603891</v>
       </c>
       <c r="P29" t="n">
-        <v>3029.183800961071</v>
+        <v>3029.183800961069</v>
       </c>
       <c r="Q29" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.470162716751</v>
       </c>
       <c r="R29" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273554</v>
       </c>
       <c r="S29" t="n">
-        <v>3273.646193748725</v>
+        <v>3273.646193748722</v>
       </c>
       <c r="T29" t="n">
-        <v>3115.11807908102</v>
+        <v>3115.118079081017</v>
       </c>
       <c r="U29" t="n">
-        <v>2909.03723530293</v>
+        <v>2909.037235302927</v>
       </c>
       <c r="V29" t="n">
-        <v>2625.423980907432</v>
+        <v>2625.423980907429</v>
       </c>
       <c r="W29" t="n">
-        <v>2320.104958585392</v>
+        <v>2320.104958585388</v>
       </c>
       <c r="X29" t="n">
-        <v>1994.088833272385</v>
+        <v>2320.104958585388</v>
       </c>
       <c r="Y29" t="n">
-        <v>1769.367990401</v>
+        <v>2019.501957844159</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.7614826343956</v>
+        <v>941.7614826343959</v>
       </c>
       <c r="C30" t="n">
-        <v>767.3084533532686</v>
+        <v>767.3084533532689</v>
       </c>
       <c r="D30" t="n">
-        <v>618.3740436920175</v>
+        <v>618.3740436920176</v>
       </c>
       <c r="E30" t="n">
-        <v>459.1365886865619</v>
+        <v>459.1365886865621</v>
       </c>
       <c r="F30" t="n">
-        <v>312.602030713447</v>
+        <v>312.6020307134471</v>
       </c>
       <c r="G30" t="n">
-        <v>176.2389305460657</v>
+        <v>176.2389305460652</v>
       </c>
       <c r="H30" t="n">
-        <v>85.73703618393318</v>
+        <v>85.73703618393313</v>
       </c>
       <c r="I30" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4070140760882</v>
+        <v>160.4070140760883</v>
       </c>
       <c r="K30" t="n">
-        <v>398.6712130564353</v>
+        <v>398.6712130564354</v>
       </c>
       <c r="L30" t="n">
-        <v>765.3693733691006</v>
+        <v>765.3693733691007</v>
       </c>
       <c r="M30" t="n">
         <v>1212.645698591416</v>
@@ -6579,7 +6579,7 @@
         <v>1779.825975353152</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.58861862495</v>
+        <v>1525.588618624951</v>
       </c>
       <c r="X30" t="n">
         <v>1317.737118419418</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.683877958582</v>
+        <v>759.6838779585823</v>
       </c>
       <c r="C31" t="n">
-        <v>638.1973279787484</v>
+        <v>638.1973279787487</v>
       </c>
       <c r="D31" t="n">
-        <v>535.530321514486</v>
+        <v>535.5303215144862</v>
       </c>
       <c r="E31" t="n">
-        <v>435.0668608801662</v>
+        <v>435.0668608801664</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303291</v>
+        <v>335.6265463303292</v>
       </c>
       <c r="G31" t="n">
         <v>215.3733426531214</v>
@@ -6616,55 +6616,55 @@
         <v>116.6057888190525</v>
       </c>
       <c r="I31" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="J31" t="n">
-        <v>158.3577622848133</v>
+        <v>158.3577622848132</v>
       </c>
       <c r="K31" t="n">
-        <v>408.8503304860962</v>
+        <v>408.8503304860961</v>
       </c>
       <c r="L31" t="n">
-        <v>771.915514186999</v>
+        <v>771.9155141869987</v>
       </c>
       <c r="M31" t="n">
-        <v>1162.577945038955</v>
+        <v>1162.577945038954</v>
       </c>
       <c r="N31" t="n">
-        <v>1550.491706997226</v>
+        <v>1550.491706997227</v>
       </c>
       <c r="O31" t="n">
-        <v>1896.326691170046</v>
+        <v>1896.326691170047</v>
       </c>
       <c r="P31" t="n">
-        <v>2175.439576856112</v>
+        <v>2175.439576856113</v>
       </c>
       <c r="Q31" t="n">
-        <v>2299.555258261033</v>
+        <v>2299.555258261034</v>
       </c>
       <c r="R31" t="n">
-        <v>2257.174433966634</v>
+        <v>2257.174433966635</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.938182741534</v>
+        <v>2112.938182741535</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.621200259133</v>
+        <v>1938.621200259134</v>
       </c>
       <c r="U31" t="n">
-        <v>1696.96796633285</v>
+        <v>1696.967966332851</v>
       </c>
       <c r="V31" t="n">
         <v>1489.733111075037</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.765573986149</v>
+        <v>1247.76557398615</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.225656036205</v>
+        <v>1067.225656036206</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.8827098407485</v>
+        <v>893.8827098407488</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1715.929751842703</v>
+        <v>1715.929751842702</v>
       </c>
       <c r="C32" t="n">
-        <v>1444.876970939628</v>
+        <v>1444.876970939627</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.521008370214</v>
+        <v>1184.521008370213</v>
       </c>
       <c r="E32" t="n">
-        <v>896.642491809306</v>
+        <v>896.6424918093054</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5663230570349</v>
+        <v>583.5663230570344</v>
       </c>
       <c r="G32" t="n">
-        <v>266.4036089393675</v>
+        <v>266.4036089393673</v>
       </c>
       <c r="H32" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="I32" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="J32" t="n">
         <v>255.6088755444965</v>
@@ -6710,34 +6710,34 @@
         <v>1573.994367154676</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.773184213458</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O32" t="n">
         <v>2623.745655092795</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.520021449973</v>
+        <v>3029.183800961069</v>
       </c>
       <c r="Q32" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.470162716751</v>
       </c>
       <c r="R32" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273554</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837988</v>
+        <v>3324.106296837985</v>
       </c>
       <c r="T32" t="n">
-        <v>3216.038285259546</v>
+        <v>3216.038285259544</v>
       </c>
       <c r="U32" t="n">
-        <v>3060.417544570719</v>
+        <v>3060.417544570717</v>
       </c>
       <c r="V32" t="n">
-        <v>2827.264393264484</v>
+        <v>2827.264393264483</v>
       </c>
       <c r="W32" t="n">
-        <v>2572.405474031707</v>
+        <v>2572.405474031706</v>
       </c>
       <c r="X32" t="n">
         <v>2296.849451807963</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.7614826343959</v>
+        <v>941.7614826343956</v>
       </c>
       <c r="C33" t="n">
-        <v>767.3084533532689</v>
+        <v>767.3084533532686</v>
       </c>
       <c r="D33" t="n">
-        <v>618.3740436920176</v>
+        <v>618.3740436920175</v>
       </c>
       <c r="E33" t="n">
-        <v>459.1365886865621</v>
+        <v>459.1365886865619</v>
       </c>
       <c r="F33" t="n">
-        <v>312.6020307134471</v>
+        <v>312.602030713447</v>
       </c>
       <c r="G33" t="n">
-        <v>176.2389305460652</v>
+        <v>176.2389305460654</v>
       </c>
       <c r="H33" t="n">
-        <v>85.73703618393318</v>
+        <v>85.73703618393301</v>
       </c>
       <c r="I33" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="J33" t="n">
         <v>160.4070140760884</v>
@@ -6816,7 +6816,7 @@
         <v>1779.825975353152</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.588618624951</v>
+        <v>1525.58861862495</v>
       </c>
       <c r="X33" t="n">
         <v>1317.737118419418</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>407.0472151894218</v>
+        <v>407.0472151894211</v>
       </c>
       <c r="C34" t="n">
-        <v>336.0207682988514</v>
+        <v>336.0207682988507</v>
       </c>
       <c r="D34" t="n">
-        <v>283.8138649238521</v>
+        <v>283.8138649238516</v>
       </c>
       <c r="E34" t="n">
-        <v>233.8105073787954</v>
+        <v>233.810507378795</v>
       </c>
       <c r="F34" t="n">
-        <v>184.8302959182215</v>
+        <v>184.8302959182212</v>
       </c>
       <c r="G34" t="n">
-        <v>115.0371953302769</v>
+        <v>115.0371953302767</v>
       </c>
       <c r="H34" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547107</v>
       </c>
       <c r="I34" t="n">
-        <v>66.72974458547112</v>
+        <v>67.30218066992492</v>
       </c>
       <c r="J34" t="n">
-        <v>78.55249812291055</v>
+        <v>175.0862664975579</v>
       </c>
       <c r="K34" t="n">
-        <v>272.8246846807743</v>
+        <v>369.3584530554219</v>
       </c>
       <c r="L34" t="n">
-        <v>524.495860893325</v>
+        <v>621.0296292679727</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8896744827163</v>
+        <v>788.4621105671705</v>
       </c>
       <c r="N34" t="n">
-        <v>1055.159843802757</v>
+        <v>1051.225661426644</v>
       </c>
       <c r="O34" t="n">
-        <v>1197.062511791683</v>
+        <v>1285.105342935028</v>
       </c>
       <c r="P34" t="n">
-        <v>1391.974846834635</v>
+        <v>1384.056345687786</v>
       </c>
       <c r="Q34" t="n">
-        <v>1500.856946483369</v>
+        <v>1492.938445336521</v>
       </c>
       <c r="R34" t="n">
-        <v>1500.856946483369</v>
+        <v>1500.856946483367</v>
       </c>
       <c r="S34" t="n">
-        <v>1407.080798347532</v>
+        <v>1407.08079834753</v>
       </c>
       <c r="T34" t="n">
-        <v>1283.223918954394</v>
+        <v>1283.223918954393</v>
       </c>
       <c r="U34" t="n">
-        <v>1092.030788117374</v>
+        <v>1092.030788117373</v>
       </c>
       <c r="V34" t="n">
-        <v>935.2560359488239</v>
+        <v>935.2560359488225</v>
       </c>
       <c r="W34" t="n">
-        <v>743.7486019491996</v>
+        <v>743.7486019491985</v>
       </c>
       <c r="X34" t="n">
-        <v>613.6687870885187</v>
+        <v>613.6687870885178</v>
       </c>
       <c r="Y34" t="n">
-        <v>490.7859439823251</v>
+        <v>490.7859439823242</v>
       </c>
     </row>
     <row r="35">
@@ -6920,52 +6920,52 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810543</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515854</v>
@@ -6974,7 +6974,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
@@ -6999,19 +6999,19 @@
         <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226759</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155309</v>
+        <v>79.65384678970706</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090252</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L37" t="n">
-        <v>602.6554402005012</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M37" t="n">
-        <v>770.087921499699</v>
+        <v>770.0879214996978</v>
       </c>
       <c r="N37" t="n">
-        <v>1038.10463155537</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O37" t="n">
-        <v>1176.02298077356</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P37" t="n">
-        <v>1371.681856552143</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464983</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307341</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495737</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7202,10 +7202,10 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746128</v>
@@ -7217,7 +7217,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064548</v>
@@ -7251,52 +7251,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
@@ -7327,55 +7327,55 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226759</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>176.3617198155309</v>
+        <v>155.2189959588246</v>
       </c>
       <c r="K40" t="n">
-        <v>350.2377232523202</v>
+        <v>253.529850226495</v>
       </c>
       <c r="L40" t="n">
-        <v>602.6554402005013</v>
+        <v>505.9475671746761</v>
       </c>
       <c r="M40" t="n">
-        <v>866.795794525523</v>
+        <v>770.0879214996978</v>
       </c>
       <c r="N40" t="n">
-        <v>1134.812504581194</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O40" t="n">
-        <v>1272.730853799384</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P40" t="n">
-        <v>1468.389729577966</v>
+        <v>1468.389729577965</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
         <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.421422430466</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673488</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.357570643175</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7439,22 +7439,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7509,31 +7509,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
         <v>183.0892706919199</v>
@@ -7564,31 +7564,31 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226759</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J43" t="n">
-        <v>176.3617198155309</v>
+        <v>79.65384678970703</v>
       </c>
       <c r="K43" t="n">
-        <v>274.6725740832013</v>
+        <v>253.5298502264956</v>
       </c>
       <c r="L43" t="n">
-        <v>527.0902910313823</v>
+        <v>505.9475671746767</v>
       </c>
       <c r="M43" t="n">
-        <v>791.230645356404</v>
+        <v>770.0879214996984</v>
       </c>
       <c r="N43" t="n">
-        <v>1059.247355412075</v>
+        <v>941.3967585295459</v>
       </c>
       <c r="O43" t="n">
-        <v>1197.165704630265</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P43" t="n">
-        <v>1392.824580408847</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
         <v>1489.975538818984</v>
@@ -7603,16 +7603,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="44">
@@ -7631,7 +7631,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307332</v>
@@ -7676,22 +7676,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7737,28 +7737,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170918</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630284</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E46" t="n">
         <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226766</v>
+        <v>67.83109325226769</v>
       </c>
       <c r="J46" t="n">
-        <v>79.65384678970709</v>
+        <v>176.3617198155311</v>
       </c>
       <c r="K46" t="n">
         <v>274.6725740832014</v>
       </c>
       <c r="L46" t="n">
-        <v>430.3824180055586</v>
+        <v>527.0902910313827</v>
       </c>
       <c r="M46" t="n">
-        <v>694.5227723305802</v>
+        <v>791.2306453564045</v>
       </c>
       <c r="N46" t="n">
-        <v>962.5394823862516</v>
+        <v>962.539482386252</v>
       </c>
       <c r="O46" t="n">
-        <v>1197.165704630265</v>
+        <v>1176.022980773558</v>
       </c>
       <c r="P46" t="n">
-        <v>1392.824580408848</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818983</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T46" t="n">
         <v>1273.865908363022</v>
@@ -7840,16 +7840,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304657</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673485</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431747</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734881</v>
       </c>
     </row>
   </sheetData>
@@ -10270,7 +10270,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -10279,7 +10279,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>171.8177168444631</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25382330877944</v>
+        <v>15.25382330877943</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.87771033587087</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958313</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>155.823478388894</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>139.5455787045693</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>102.4006336413267</v>
       </c>
     </row>
     <row r="15">
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>52.28225787287718</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>52.28225787287874</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>52.28225787287772</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>52.28225787287927</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>41.72511615689376</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>41.72511615689017</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>21.43204834239175</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>116.7891675947917</v>
       </c>
     </row>
     <row r="27">
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24743,10 +24743,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>116.7891675947897</v>
+        <v>41.66583130364404</v>
       </c>
     </row>
     <row r="30">
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796458.0995841627</v>
+        <v>796458.0995841625</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797277.4393527404</v>
+        <v>797277.4393527402</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760875.7295714703</v>
+        <v>760875.7295714701</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760875.7295714703</v>
+        <v>760875.7295714701</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176767</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057047</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057049</v>
+        <v>634939.1625057047</v>
       </c>
       <c r="D2" t="n">
-        <v>634942.1800230948</v>
+        <v>634942.1800230945</v>
       </c>
       <c r="E2" t="n">
-        <v>592511.5326646281</v>
+        <v>592511.532664628</v>
       </c>
       <c r="F2" t="n">
-        <v>592511.532664628</v>
+        <v>592511.5326646284</v>
       </c>
       <c r="G2" t="n">
-        <v>633082.0791566423</v>
+        <v>633082.0791566421</v>
       </c>
       <c r="H2" t="n">
-        <v>633082.0791566423</v>
+        <v>633082.0791566422</v>
       </c>
       <c r="I2" t="n">
-        <v>633733.3492291016</v>
+        <v>633733.3492291012</v>
       </c>
       <c r="J2" t="n">
         <v>593162.8027370875</v>
       </c>
       <c r="K2" t="n">
-        <v>593162.8027370874</v>
+        <v>593162.8027370872</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="M2" t="n">
         <v>636307.3716448204</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="O2" t="n">
         <v>636307.3716448201</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.3716448204</v>
+        <v>636307.3716448202</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655613</v>
+        <v>10420.33926655879</v>
       </c>
       <c r="E3" t="n">
-        <v>1151572.830875719</v>
+        <v>1151572.830875716</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.1092948741</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018802796</v>
+        <v>723.3987018801587</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157051</v>
+        <v>77544.51094157057</v>
       </c>
       <c r="M3" t="n">
-        <v>207113.9109540875</v>
+        <v>207113.9109540876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463375.0335747254</v>
+        <v>463375.0335747242</v>
       </c>
       <c r="E4" t="n">
-        <v>62485.16516868472</v>
+        <v>62485.1651686847</v>
       </c>
       <c r="F4" t="n">
         <v>62485.1651686847</v>
       </c>
       <c r="G4" t="n">
-        <v>91416.01306755043</v>
+        <v>91416.01306755039</v>
       </c>
       <c r="H4" t="n">
-        <v>91416.0130675504</v>
+        <v>91416.01306755038</v>
       </c>
       <c r="I4" t="n">
-        <v>91906.68112942869</v>
+        <v>91906.68112942853</v>
       </c>
       <c r="J4" t="n">
-        <v>62975.83323056302</v>
+        <v>62975.83323056289</v>
       </c>
       <c r="K4" t="n">
-        <v>62975.83323056299</v>
+        <v>62975.83323056284</v>
       </c>
       <c r="L4" t="n">
-        <v>93788.48670920238</v>
+        <v>93788.48670920226</v>
       </c>
       <c r="M4" t="n">
+        <v>93774.13782657706</v>
+      </c>
+      <c r="N4" t="n">
+        <v>93774.13782657706</v>
+      </c>
+      <c r="O4" t="n">
         <v>93774.13782657703</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93774.13782657703</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93774.137826577</v>
       </c>
       <c r="P4" t="n">
         <v>93774.13782657706</v>
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251488</v>
+        <v>33892.84951251495</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178175</v>
@@ -26482,31 +26482,31 @@
         <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>82204.64608217022</v>
+        <v>82204.64608217019</v>
       </c>
       <c r="H5" t="n">
-        <v>82204.64608217022</v>
+        <v>82204.64608217019</v>
       </c>
       <c r="I5" t="n">
-        <v>82370.04347866887</v>
+        <v>82370.04347866883</v>
       </c>
       <c r="J5" t="n">
-        <v>78420.89071828041</v>
+        <v>78420.89071828037</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.89071828041</v>
+        <v>78420.89071828037</v>
       </c>
       <c r="L5" t="n">
-        <v>82620.59982082556</v>
+        <v>82620.59982082553</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133695.6025739736</v>
+        <v>133691.1889961053</v>
       </c>
       <c r="C6" t="n">
-        <v>133695.6025739737</v>
+        <v>133691.1889961053</v>
       </c>
       <c r="D6" t="n">
-        <v>127253.9576692984</v>
+        <v>127249.5538253555</v>
       </c>
       <c r="E6" t="n">
-        <v>-699801.9567015573</v>
+        <v>-699943.233601491</v>
       </c>
       <c r="F6" t="n">
-        <v>451770.8741741616</v>
+        <v>451629.5972742258</v>
       </c>
       <c r="G6" t="n">
-        <v>421881.3107120475</v>
+        <v>421870.9065427308</v>
       </c>
       <c r="H6" t="n">
-        <v>459461.4200069217</v>
+        <v>459451.0158376048</v>
       </c>
       <c r="I6" t="n">
-        <v>458733.2259191237</v>
+        <v>458724.9226210085</v>
       </c>
       <c r="J6" t="n">
-        <v>451766.0787882441</v>
+        <v>451626.9027595097</v>
       </c>
       <c r="K6" t="n">
-        <v>451766.078788244</v>
+        <v>451626.9027595096</v>
       </c>
       <c r="L6" t="n">
-        <v>382353.7741732216</v>
+        <v>382353.7741732219</v>
       </c>
       <c r="M6" t="n">
-        <v>252900.725557906</v>
+        <v>252900.7255579059</v>
       </c>
       <c r="N6" t="n">
-        <v>460014.6365119934</v>
+        <v>460014.6365119932</v>
       </c>
       <c r="O6" t="n">
         <v>460014.6365119932</v>
       </c>
       <c r="P6" t="n">
-        <v>460014.6365119935</v>
+        <v>460014.6365119933</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="J2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095808</v>
+        <v>12.16740883096119</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26802,25 +26802,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>834.1218073183891</v>
+        <v>834.1218073183884</v>
       </c>
       <c r="J4" t="n">
-        <v>834.1218073183891</v>
+        <v>834.1218073183884</v>
       </c>
       <c r="K4" t="n">
-        <v>834.1218073183891</v>
+        <v>834.1218073183884</v>
       </c>
       <c r="L4" t="n">
-        <v>834.1218073183891</v>
+        <v>834.1218073183884</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-7.815970093361102e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7540815511418799</v>
+        <v>0.7540815511418231</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095808</v>
+        <v>12.16740883096119</v>
       </c>
       <c r="E3" t="n">
-        <v>1077.60929176234</v>
+        <v>1077.609291762337</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.720351916096433</v>
+        <v>2.720351916095979</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.6811034861962</v>
+        <v>828.6811034861967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27868,43 +27868,43 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.9738594999278</v>
+        <v>338.9738594999276</v>
       </c>
       <c r="I8" t="n">
-        <v>208.5901246298812</v>
+        <v>208.5901246298808</v>
       </c>
       <c r="J8" t="n">
-        <v>176.8943724050118</v>
+        <v>176.8943724050107</v>
       </c>
       <c r="K8" t="n">
-        <v>213.8677805682731</v>
+        <v>213.8677805682715</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505242</v>
+        <v>228.0473863505223</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905332</v>
+        <v>221.757326590531</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710435</v>
+        <v>220.6851794710412</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355879</v>
+        <v>221.8567179355858</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385748</v>
+        <v>224.199071738573</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.0235058728651</v>
+        <v>217.0235058728637</v>
       </c>
       <c r="R8" t="n">
-        <v>212.5129307991465</v>
+        <v>212.5129307991457</v>
       </c>
       <c r="S8" t="n">
-        <v>207.9054371089169</v>
+        <v>207.9054371089166</v>
       </c>
       <c r="T8" t="n">
-        <v>222.8817276258097</v>
+        <v>222.8817276258096</v>
       </c>
       <c r="U8" t="n">
         <v>251.341739771328</v>
@@ -27947,40 +27947,40 @@
         <v>137.3173457555365</v>
       </c>
       <c r="H9" t="n">
-        <v>111.9826835360647</v>
+        <v>111.9826835360646</v>
       </c>
       <c r="I9" t="n">
-        <v>98.62130302525452</v>
+        <v>98.62130302525429</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3650025758396</v>
+        <v>124.365002575839</v>
       </c>
       <c r="K9" t="n">
-        <v>133.6153305693648</v>
+        <v>133.6153305693637</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951895</v>
+        <v>132.871855495188</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5027961091462</v>
+        <v>135.5027961091445</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374184</v>
+        <v>124.5349651374166</v>
       </c>
       <c r="O9" t="n">
-        <v>136.369400794888</v>
+        <v>136.3694007948864</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173279</v>
+        <v>128.9768164173266</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.6410168537932</v>
+        <v>136.6410168537923</v>
       </c>
       <c r="R9" t="n">
-        <v>144.0545809506522</v>
+        <v>144.0545809506518</v>
       </c>
       <c r="S9" t="n">
-        <v>171.1970486849783</v>
+        <v>171.1970486849782</v>
       </c>
       <c r="T9" t="n">
         <v>200.0592395559947</v>
@@ -28026,43 +28026,43 @@
         <v>167.9690381294193</v>
       </c>
       <c r="H10" t="n">
-        <v>162.0320950347072</v>
+        <v>162.0320950347071</v>
       </c>
       <c r="I10" t="n">
-        <v>154.790642330327</v>
+        <v>154.7906423303268</v>
       </c>
       <c r="J10" t="n">
-        <v>125.4441765463082</v>
+        <v>125.4441765463078</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4640862875904</v>
+        <v>126.4640862875897</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202303</v>
+        <v>131.6226139202294</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4863965628147</v>
+        <v>135.4863965628138</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250444</v>
+        <v>124.3279380250435</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599782</v>
+        <v>135.3552454599775</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0743121296875</v>
+        <v>135.0743121296868</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.6677228959712</v>
+        <v>149.6677228959707</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3068339332692</v>
+        <v>176.3068339332689</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6342222545305</v>
+        <v>223.6342222545304</v>
       </c>
       <c r="T10" t="n">
-        <v>227.8518405405676</v>
+        <v>227.8518405405675</v>
       </c>
       <c r="U10" t="n">
         <v>286.3178325621797</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28412,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="J19" t="n">
-        <v>61.91186200375311</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>93.95027323718516</v>
+        <v>61.91186200375572</v>
       </c>
       <c r="L19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="M19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="N19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="P19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="R19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="F22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="J22" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="L22" t="n">
-        <v>61.9118620037531</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="M22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>61.91186200375532</v>
       </c>
       <c r="O22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="P22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="R22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>10.77149445565266</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>10.7714944556551</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
     </row>
     <row r="24">
@@ -29126,10 +29126,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="J25" t="n">
-        <v>93.95027323718516</v>
+        <v>61.9118620037553</v>
       </c>
       <c r="K25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="N25" t="n">
-        <v>61.91186200375313</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="O25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="P25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="R25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="U25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="V25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718507</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>10.7714944556553</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>5.373287609985908</v>
       </c>
       <c r="S26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4.156675004196586e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29542,7 +29542,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>10.7714944556526</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29551,7 +29551,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>10.7714944556551</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="30">
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4.121147867408581e-13</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>10.77149445565169</v>
       </c>
       <c r="Q32" t="n">
-        <v>10.7714944556553</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>4.689582056016661e-13</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="C34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="D34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="F34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="G34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="H34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="K34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="L34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="M34" t="n">
-        <v>96.93063867696307</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>96.93063867696307</v>
+        <v>92.37849881780437</v>
       </c>
       <c r="O34" t="n">
-        <v>4.024564414884878</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="P34" t="n">
-        <v>96.93063867696307</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="S34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="T34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="U34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="V34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="W34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.9306386769632</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L37" t="n">
-        <v>76.32843350416042</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>76.32843350415911</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30250,7 +30250,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="39">
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810495</v>
+        <v>77.66073332242605</v>
       </c>
       <c r="K40" t="n">
-        <v>76.32843350416053</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>76.32843350415985</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.08100106221825</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="45">
@@ -30833,7 +30833,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810502</v>
+        <v>76.32843350415811</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.08100106221664</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635561033</v>
+        <v>0.04891420635562282</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158393945</v>
+        <v>0.5009426158395224</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524669</v>
+        <v>1.885764940525151</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121674486</v>
+        <v>4.151532121675547</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476707473</v>
+        <v>6.222070476709061</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619462984</v>
+        <v>7.719028619464955</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636739569</v>
+        <v>8.588906636741761</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125547448</v>
+        <v>8.727884125549677</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486098847</v>
+        <v>8.241493486100952</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016694716</v>
+        <v>7.033924016696512</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001584419</v>
+        <v>5.282184001585768</v>
       </c>
       <c r="R8" t="n">
-        <v>3.07260701498561</v>
+        <v>3.072607014986395</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328471</v>
+        <v>1.114632477328756</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216843</v>
+        <v>0.214121938321739</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508448826</v>
+        <v>0.003913136508449825</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767413625</v>
+        <v>0.02617140767414293</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317896</v>
+        <v>0.2527607004318541</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747454805</v>
+        <v>0.9010769747457106</v>
       </c>
       <c r="J9" t="n">
-        <v>2.472624090827057</v>
+        <v>2.472624090827688</v>
       </c>
       <c r="K9" t="n">
-        <v>4.226108404994185</v>
+        <v>4.226108404995264</v>
       </c>
       <c r="L9" t="n">
-        <v>5.682524284684715</v>
+        <v>5.682524284686166</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812872152</v>
+        <v>6.631237812873845</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945914936</v>
+        <v>6.806746945916673</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649556443</v>
+        <v>6.226843649558033</v>
       </c>
       <c r="P9" t="n">
-        <v>4.997590997002386</v>
+        <v>4.997590997003662</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.34075723222834</v>
+        <v>3.340757232229192</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311723</v>
+        <v>1.624923013312138</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4861224188595041</v>
+        <v>0.4861224188596282</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268912</v>
+        <v>0.1054891388269182</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136456333</v>
+        <v>0.001721803136456772</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0219412290394326</v>
+        <v>0.0219412290394382</v>
       </c>
       <c r="H10" t="n">
-        <v>0.19507747273241</v>
+        <v>0.1950774727324598</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6598325969313006</v>
+        <v>0.659832596931469</v>
       </c>
       <c r="J10" t="n">
-        <v>1.551244893087885</v>
+        <v>1.551244893088281</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882944987</v>
+        <v>2.549171882945638</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361008007</v>
+        <v>3.26206236100884</v>
       </c>
       <c r="M10" t="n">
-        <v>3.43938738479033</v>
+        <v>3.439387384791208</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440188811</v>
+        <v>3.357606440189668</v>
       </c>
       <c r="O10" t="n">
-        <v>3.101292991864529</v>
+        <v>3.101292991865321</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919460102</v>
+        <v>2.653691919460779</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83727873347467</v>
+        <v>1.837278733475139</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9865574439003055</v>
+        <v>0.9865574439005574</v>
       </c>
       <c r="S10" t="n">
-        <v>0.382375782441748</v>
+        <v>0.3823757824418456</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771393926</v>
+        <v>0.0937488877139632</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241779</v>
+        <v>0.001196794311242085</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,37 +32303,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32342,7 +32342,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32391,16 +32391,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32409,19 +32409,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120763</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>73.85403729409597</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K19" t="n">
-        <v>193.2541664368521</v>
+        <v>161.2157552034227</v>
       </c>
       <c r="L19" t="n">
-        <v>251.2329438658288</v>
+        <v>251.2329438658286</v>
       </c>
       <c r="M19" t="n">
-        <v>263.0739917212233</v>
+        <v>263.0739917212231</v>
       </c>
       <c r="N19" t="n">
-        <v>266.9895025602634</v>
+        <v>266.9895025602632</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>233.2617370939423</v>
       </c>
       <c r="P19" t="n">
-        <v>193.9007810682544</v>
+        <v>193.9007810682543</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.0015533973273</v>
+        <v>107.0015533973272</v>
       </c>
       <c r="R19" t="n">
-        <v>5.018120567137814</v>
+        <v>5.0181205671377</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>105.892448527528</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
         <v>193.2541664368521</v>
       </c>
       <c r="L22" t="n">
-        <v>219.1945326323967</v>
+        <v>251.2329438658287</v>
       </c>
       <c r="M22" t="n">
-        <v>263.0739917212233</v>
+        <v>263.0739917212232</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>234.9510913268336</v>
       </c>
       <c r="O22" t="n">
-        <v>233.2617370939424</v>
+        <v>233.2617370939423</v>
       </c>
       <c r="P22" t="n">
-        <v>193.9007810682544</v>
+        <v>193.9007810682543</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.0015533973273</v>
+        <v>107.0015533973272</v>
       </c>
       <c r="R22" t="n">
-        <v>5.018120567137814</v>
+        <v>5.018120567137728</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>201.5584954243652</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36373,7 +36373,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>409.5334806750267</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.892448527528</v>
+        <v>73.85403729409816</v>
       </c>
       <c r="K25" t="n">
         <v>193.2541664368521</v>
@@ -36522,22 +36522,22 @@
         <v>157.2826706286436</v>
       </c>
       <c r="M25" t="n">
-        <v>263.0739917212233</v>
+        <v>263.0739917212232</v>
       </c>
       <c r="N25" t="n">
-        <v>234.9510913268314</v>
+        <v>266.9895025602633</v>
       </c>
       <c r="O25" t="n">
-        <v>233.2617370939424</v>
+        <v>233.2617370939423</v>
       </c>
       <c r="P25" t="n">
-        <v>193.9007810682544</v>
+        <v>193.9007810682543</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.0015533973273</v>
+        <v>107.0015533973272</v>
       </c>
       <c r="R25" t="n">
-        <v>5.018120567137814</v>
+        <v>5.018120567137728</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="J26" t="n">
         <v>190.7870009687125</v>
@@ -36613,10 +36613,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>261.5657992593747</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>64.98648615221063</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>549.6926102858791</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36847,7 +36847,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>409.5334806750267</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K31" t="n">
         <v>253.022796162912</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861339</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P31" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>409.5334806750236</v>
       </c>
       <c r="Q32" t="n">
-        <v>261.5657992593747</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.5782182671251022</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034286</v>
+        <v>108.8728139673061</v>
       </c>
       <c r="K34" t="n">
-        <v>196.2345318766301</v>
+        <v>196.2345318766302</v>
       </c>
       <c r="L34" t="n">
-        <v>254.2133093056067</v>
+        <v>254.2133093056069</v>
       </c>
       <c r="M34" t="n">
-        <v>266.0543571610012</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N34" t="n">
-        <v>269.9698680000413</v>
+        <v>265.4177281408827</v>
       </c>
       <c r="O34" t="n">
-        <v>143.3360282716421</v>
+        <v>236.2421025337205</v>
       </c>
       <c r="P34" t="n">
-        <v>196.8811465080323</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.9819188371052</v>
+        <v>109.9819188371054</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.998486006915869</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>233.6111041328041</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840381</v>
+        <v>245.4521519881972</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923326</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37695,13 +37695,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.33229981826684</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184478</v>
+        <v>89.60290861276891</v>
       </c>
       <c r="K40" t="n">
-        <v>175.6323267038275</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
         <v>254.9673908567486</v>
@@ -37713,16 +37713,16 @@
         <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
         <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37932,13 +37932,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966699</v>
+        <v>175.6323267038268</v>
       </c>
       <c r="L43" t="n">
         <v>254.9673908567486</v>
@@ -37947,19 +37947,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P43" t="n">
         <v>197.6352280591742</v>
       </c>
       <c r="Q43" t="n">
-        <v>98.13228122236042</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266911</v>
+        <v>1.332299818266939</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>215.6398973609154</v>
       </c>
       <c r="P46" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.13228122235881</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057706</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
